--- a/bundles/public/img/bill_template.xlsx
+++ b/bundles/public/img/bill_template.xlsx
@@ -178,9 +178,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00&quot;р.&quot;"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,10 +263,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -279,10 +276,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -331,14 +339,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -353,37 +358,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -722,223 +729,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="4"/>
-      <c r="F2" s="8" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="24" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="18">
-      <c r="A8" s="23" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="23" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="18">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="51" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="18">
-      <c r="A12" s="21" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" ht="37" customHeight="1">
+      <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="23" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1">
-      <c r="A14" s="22" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1">
+      <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1">
-      <c r="A15" s="22" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1">
+      <c r="A15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1">
-      <c r="A16" s="22" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1">
+      <c r="A16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" s="11" customFormat="1">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" s="8" customFormat="1">
+      <c r="A17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="42">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="28">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="15"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
+  <mergeCells count="11">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.50314960629921268" right="0.50314960629921268" top="0.55314960629921262" bottom="0.55314960629921262" header="0.30000000000000004" footer="0.30000000000000004"/>
